--- a/SaSeCount.xlsx
+++ b/SaSeCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\WormCFUHeterogeneity2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F652AD60-354D-4C91-86AB-65BC5EC1C298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A506AC1-2825-4AD3-89F3-1770E0DF615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1395" windowWidth="22140" windowHeight="13725" xr2:uid="{10060F27-EF8C-45AE-9597-09A27428F5C5}"/>
+    <workbookView xWindow="10320" yWindow="0" windowWidth="15615" windowHeight="15285" xr2:uid="{10060F27-EF8C-45AE-9597-09A27428F5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Rep</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>Run</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,24 +424,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B194">
         <v>5</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B195">
         <v>5</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B196">
         <v>5</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B197">
         <v>5</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B199">
         <v>5</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B200">
         <v>5</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B201">
         <v>5</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B202">
         <v>5</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B203">
         <v>5</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B204">
         <v>5</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B205">
         <v>5</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B206">
         <v>5</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B207">
         <v>5</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B208">
         <v>5</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B209">
         <v>5</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B210">
         <v>5</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B211">
         <v>5</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B213">
         <v>5</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B214">
         <v>5</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B215">
         <v>5</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B216">
         <v>5</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B218">
         <v>5</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B219">
         <v>5</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B220">
         <v>5</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B221">
         <v>5</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B229">
         <v>5</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B230">
         <v>5</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B231">
         <v>5</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B232">
         <v>5</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B233">
         <v>5</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B234">
         <v>5</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B236">
         <v>5</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B241">
         <v>5</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B243">
         <v>6</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B246">
         <v>6</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B247">
         <v>6</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B248">
         <v>6</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B249">
         <v>6</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B250">
         <v>6</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B251">
         <v>6</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B252">
         <v>6</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B254">
         <v>6</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B255">
         <v>6</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B256">
         <v>6</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B257">
         <v>6</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B258">
         <v>6</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B259">
         <v>6</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B260">
         <v>6</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B261">
         <v>6</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B265">
         <v>6</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -6552,7 +6552,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B334">
         <v>2</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B335">
         <v>2</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B348">
         <v>3</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B350">
         <v>3</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B351">
         <v>3</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B354">
         <v>3</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B355">
         <v>3</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B356">
         <v>3</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B357">
         <v>3</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B358">
         <v>3</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B359">
         <v>3</v>

--- a/SaSeCount.xlsx
+++ b/SaSeCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\WormCFUHeterogeneity2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ECDCE2-045D-48A5-8573-26F1FEB1FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41A78E-D151-4BA9-855C-6C0EAA3A79AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="105" windowWidth="9615" windowHeight="15285" xr2:uid="{10060F27-EF8C-45AE-9597-09A27428F5C5}"/>
+    <workbookView xWindow="2340" yWindow="105" windowWidth="22440" windowHeight="15285" xr2:uid="{10060F27-EF8C-45AE-9597-09A27428F5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A784E71-D133-4DB7-95CF-3C8FC11E6794}">
   <dimension ref="A1:H406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="H390" sqref="H390"/>
+    <sheetView tabSelected="1" topLeftCell="B371" workbookViewId="0">
+      <selection activeCell="F383" sqref="F383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11541,21 +11541,21 @@
         <v>1</v>
       </c>
       <c r="D384">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E384">
         <v>1</v>
       </c>
       <c r="F384">
-        <f>D384*10*10^E384</f>
+        <f t="shared" ref="F384:F406" si="28">D384*20*10^E384</f>
         <v>4600</v>
       </c>
       <c r="G384">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G384:G406" si="29">F384/C384</f>
         <v>4600</v>
       </c>
       <c r="H384" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H384:H406" si="30">IF(G384=0,0,LOG10(G384))</f>
         <v>3.6627578316815739</v>
       </c>
     </row>
@@ -11570,22 +11570,22 @@
         <v>1</v>
       </c>
       <c r="D385">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E385">
         <v>2</v>
       </c>
       <c r="F385">
-        <f t="shared" ref="F385:F406" si="28">D385*10*10^E385</f>
-        <v>29000</v>
+        <f t="shared" si="28"/>
+        <v>30000</v>
       </c>
       <c r="G385">
-        <f t="shared" si="27"/>
-        <v>29000</v>
+        <f t="shared" si="29"/>
+        <v>30000</v>
       </c>
       <c r="H385" s="1">
-        <f t="shared" si="25"/>
-        <v>4.4623979978989565</v>
+        <f t="shared" si="30"/>
+        <v>4.4771212547196626</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -11599,22 +11599,22 @@
         <v>1</v>
       </c>
       <c r="D386">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E386">
         <v>0</v>
       </c>
       <c r="F386">
         <f t="shared" si="28"/>
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G386">
-        <f t="shared" si="27"/>
-        <v>290</v>
+        <f t="shared" si="29"/>
+        <v>300</v>
       </c>
       <c r="H386" s="1">
-        <f t="shared" si="25"/>
-        <v>2.4623979978989561</v>
+        <f t="shared" si="30"/>
+        <v>2.4771212547196626</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -11628,22 +11628,22 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E387">
         <v>2</v>
       </c>
       <c r="F387">
         <f t="shared" si="28"/>
-        <v>71000</v>
+        <v>72000</v>
       </c>
       <c r="G387">
-        <f t="shared" si="27"/>
-        <v>71000</v>
+        <f t="shared" si="29"/>
+        <v>72000</v>
       </c>
       <c r="H387" s="1">
-        <f t="shared" si="25"/>
-        <v>4.8512583487190755</v>
+        <f t="shared" si="30"/>
+        <v>4.8573324964312681</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -11664,15 +11664,15 @@
       </c>
       <c r="F388">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G388">
-        <f t="shared" si="27"/>
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>20</v>
       </c>
       <c r="H388" s="1">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>1.3010299956639813</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="D389">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E389">
         <v>2</v>
@@ -11696,11 +11696,11 @@
         <v>34000</v>
       </c>
       <c r="G389">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="H389" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>4.5314789170422554</v>
       </c>
     </row>
@@ -11725,11 +11725,11 @@
         <v>0</v>
       </c>
       <c r="G390">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H390" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -11744,22 +11744,22 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E391">
         <v>1</v>
       </c>
       <c r="F391">
         <f t="shared" si="28"/>
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G391">
-        <f t="shared" si="27"/>
-        <v>6500</v>
+        <f t="shared" si="29"/>
+        <v>6600</v>
       </c>
       <c r="H391" s="1">
-        <f t="shared" si="25"/>
-        <v>3.8129133566428557</v>
+        <f t="shared" si="30"/>
+        <v>3.8195439355418688</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -11773,22 +11773,22 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E392">
         <v>2</v>
       </c>
       <c r="F392">
         <f t="shared" si="28"/>
-        <v>53000</v>
+        <v>54000</v>
       </c>
       <c r="G392">
-        <f t="shared" si="27"/>
-        <v>53000</v>
+        <f t="shared" si="29"/>
+        <v>54000</v>
       </c>
       <c r="H392" s="1">
-        <f t="shared" si="25"/>
-        <v>4.7242758696007892</v>
+        <f t="shared" si="30"/>
+        <v>4.7323937598229682</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -11802,22 +11802,22 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E393">
         <v>1</v>
       </c>
       <c r="F393">
         <f t="shared" si="28"/>
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G393">
-        <f t="shared" si="27"/>
-        <v>1700</v>
+        <f t="shared" si="29"/>
+        <v>1800</v>
       </c>
       <c r="H393" s="1">
-        <f t="shared" si="25"/>
-        <v>3.2304489213782741</v>
+        <f t="shared" si="30"/>
+        <v>3.255272505103306</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -11831,22 +11831,22 @@
         <v>1</v>
       </c>
       <c r="D394">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E394">
         <v>2</v>
       </c>
       <c r="F394">
         <f t="shared" si="28"/>
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="G394">
-        <f t="shared" si="27"/>
-        <v>19000</v>
+        <f t="shared" si="29"/>
+        <v>20000</v>
       </c>
       <c r="H394" s="1">
-        <f t="shared" si="25"/>
-        <v>4.2787536009528289</v>
+        <f t="shared" si="30"/>
+        <v>4.3010299956639813</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -11860,22 +11860,22 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E395">
         <v>1</v>
       </c>
       <c r="F395">
         <f t="shared" si="28"/>
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G395">
-        <f t="shared" si="27"/>
-        <v>2300</v>
+        <f t="shared" si="29"/>
+        <v>2400</v>
       </c>
       <c r="H395" s="1">
-        <f t="shared" si="25"/>
-        <v>3.3617278360175931</v>
+        <f t="shared" si="30"/>
+        <v>3.3802112417116059</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -11889,22 +11889,22 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E396">
         <v>2</v>
       </c>
       <c r="F396">
         <f t="shared" si="28"/>
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="G396">
-        <f t="shared" si="27"/>
-        <v>39000</v>
+        <f t="shared" si="29"/>
+        <v>40000</v>
       </c>
       <c r="H396" s="1">
-        <f t="shared" si="25"/>
-        <v>4.5910646070264995</v>
+        <f t="shared" si="30"/>
+        <v>4.6020599913279625</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -11918,22 +11918,22 @@
         <v>1</v>
       </c>
       <c r="D397">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E397">
         <v>0</v>
       </c>
       <c r="F397">
         <f t="shared" si="28"/>
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G397">
-        <f t="shared" si="27"/>
-        <v>350</v>
+        <f t="shared" si="29"/>
+        <v>360</v>
       </c>
       <c r="H397" s="1">
-        <f t="shared" si="25"/>
-        <v>2.5440680443502757</v>
+        <f t="shared" si="30"/>
+        <v>2.5563025007672873</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -11947,22 +11947,22 @@
         <v>1</v>
       </c>
       <c r="D398">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E398">
         <v>1</v>
       </c>
       <c r="F398">
         <f t="shared" si="28"/>
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G398">
-        <f t="shared" si="27"/>
-        <v>1300</v>
+        <f t="shared" si="29"/>
+        <v>1400</v>
       </c>
       <c r="H398" s="1">
-        <f t="shared" si="25"/>
-        <v>3.1139433523068369</v>
+        <f t="shared" si="30"/>
+        <v>3.1461280356782382</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -11976,22 +11976,22 @@
         <v>1</v>
       </c>
       <c r="D399">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E399">
         <v>2</v>
       </c>
       <c r="F399">
         <f t="shared" si="28"/>
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="G399">
-        <f t="shared" si="27"/>
-        <v>23000</v>
+        <f t="shared" si="29"/>
+        <v>24000</v>
       </c>
       <c r="H399" s="1">
-        <f t="shared" si="25"/>
-        <v>4.3617278360175931</v>
+        <f t="shared" si="30"/>
+        <v>4.3802112417116064</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="D400">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -12015,11 +12015,11 @@
         <v>720</v>
       </c>
       <c r="G400">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>720</v>
       </c>
       <c r="H400" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2.8573324964312685</v>
       </c>
     </row>
@@ -12034,22 +12034,22 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E401">
         <v>1</v>
       </c>
       <c r="F401">
         <f t="shared" si="28"/>
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G401">
-        <f t="shared" si="27"/>
-        <v>1900</v>
+        <f t="shared" si="29"/>
+        <v>2000</v>
       </c>
       <c r="H401" s="1">
-        <f t="shared" si="25"/>
-        <v>3.2787536009528289</v>
+        <f t="shared" si="30"/>
+        <v>3.3010299956639813</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -12063,22 +12063,22 @@
         <v>1</v>
       </c>
       <c r="D402">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E402">
         <v>1</v>
       </c>
       <c r="F402">
         <f t="shared" si="28"/>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G402">
-        <f t="shared" si="27"/>
-        <v>5100</v>
+        <f t="shared" si="29"/>
+        <v>5200</v>
       </c>
       <c r="H402" s="1">
-        <f t="shared" si="25"/>
-        <v>3.7075701760979363</v>
+        <f t="shared" si="30"/>
+        <v>3.716003343634799</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -12092,22 +12092,22 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E403">
         <v>2</v>
       </c>
       <c r="F403">
         <f t="shared" si="28"/>
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="G403">
-        <f t="shared" si="27"/>
-        <v>27000</v>
+        <f t="shared" si="29"/>
+        <v>28000</v>
       </c>
       <c r="H403" s="1">
-        <f t="shared" si="25"/>
-        <v>4.4313637641589869</v>
+        <f t="shared" si="30"/>
+        <v>4.4471580313422194</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="D404">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E404">
         <v>2</v>
@@ -12131,11 +12131,11 @@
         <v>62000</v>
       </c>
       <c r="G404">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>62000</v>
       </c>
       <c r="H404" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>4.7923916894982534</v>
       </c>
     </row>
@@ -12150,22 +12150,22 @@
         <v>1</v>
       </c>
       <c r="D405">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E405">
         <v>1</v>
       </c>
       <c r="F405">
         <f t="shared" si="28"/>
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G405">
-        <f t="shared" si="27"/>
-        <v>4900</v>
+        <f t="shared" si="29"/>
+        <v>5000</v>
       </c>
       <c r="H405" s="1">
-        <f t="shared" si="25"/>
-        <v>3.6901960800285138</v>
+        <f t="shared" si="30"/>
+        <v>3.6989700043360187</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -12179,22 +12179,22 @@
         <v>1</v>
       </c>
       <c r="D406">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E406">
         <v>2</v>
       </c>
       <c r="F406">
         <f t="shared" si="28"/>
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="G406">
-        <f t="shared" si="27"/>
-        <v>41000</v>
+        <f t="shared" si="29"/>
+        <v>42000</v>
       </c>
       <c r="H406" s="1">
-        <f t="shared" si="25"/>
-        <v>4.6127838567197355</v>
+        <f t="shared" si="30"/>
+        <v>4.6232492903979008</v>
       </c>
     </row>
   </sheetData>

--- a/SaSeCount.xlsx
+++ b/SaSeCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\WormCFUHeterogeneity2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41A78E-D151-4BA9-855C-6C0EAA3A79AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C96A44-4C8E-4AB9-B8F0-80C571FB7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="105" windowWidth="22440" windowHeight="15285" xr2:uid="{10060F27-EF8C-45AE-9597-09A27428F5C5}"/>
+    <workbookView xWindow="2340" yWindow="105" windowWidth="19980" windowHeight="15285" xr2:uid="{10060F27-EF8C-45AE-9597-09A27428F5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A784E71-D133-4DB7-95CF-3C8FC11E6794}">
   <dimension ref="A1:H406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B371" workbookViewId="0">
-      <selection activeCell="F383" sqref="F383"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="K368" sqref="K368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11196,19 +11196,19 @@
         <v>26</v>
       </c>
       <c r="E372">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F372">
         <f t="shared" si="23"/>
-        <v>520000</v>
+        <v>52000</v>
       </c>
       <c r="G372">
         <f t="shared" si="24"/>
-        <v>520000</v>
+        <v>52000</v>
       </c>
       <c r="H372" s="1">
         <f t="shared" si="22"/>
-        <v>5.7160033436347994</v>
+        <v>4.7160033436347994</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -11381,7 +11381,7 @@
         <v>8000</v>
       </c>
       <c r="H378" s="1">
-        <f t="shared" ref="H378:H406" si="25">IF(G378=0,0,LOG10(G378))</f>
+        <f t="shared" ref="H378:H382" si="25">IF(G378=0,0,LOG10(G378))</f>
         <v>3.9030899869919438</v>
       </c>
     </row>
@@ -11402,11 +11402,11 @@
         <v>1</v>
       </c>
       <c r="F379">
-        <f t="shared" ref="F379:F383" si="26">D379*20*10^E379</f>
+        <f t="shared" ref="F379:F382" si="26">D379*20*10^E379</f>
         <v>1600</v>
       </c>
       <c r="G379">
-        <f t="shared" ref="G379:G406" si="27">F379/C379</f>
+        <f t="shared" ref="G379:G382" si="27">F379/C379</f>
         <v>1600</v>
       </c>
       <c r="H379" s="1">
@@ -11454,22 +11454,22 @@
         <v>1</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F381">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G381">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H381" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4.3010299956639813</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -11483,22 +11483,22 @@
         <v>1</v>
       </c>
       <c r="D382">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F382">
         <f t="shared" si="26"/>
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="G382">
         <f t="shared" si="27"/>
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="H382" s="1">
         <f t="shared" si="25"/>
-        <v>4.3010299956639813</v>
+        <v>2.9030899869919438</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -11506,28 +11506,28 @@
         <v>5</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C383">
         <v>1</v>
       </c>
       <c r="D383">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E383">
         <v>1</v>
       </c>
       <c r="F383">
-        <f t="shared" si="26"/>
-        <v>800</v>
+        <f t="shared" ref="F383:F406" si="28">D383*20*10^E383</f>
+        <v>4600</v>
       </c>
       <c r="G383">
-        <f t="shared" si="27"/>
-        <v>800</v>
+        <f t="shared" ref="G383:G406" si="29">F383/C383</f>
+        <v>4600</v>
       </c>
       <c r="H383" s="1">
-        <f t="shared" si="25"/>
-        <v>2.9030899869919438</v>
+        <f t="shared" ref="H383:H406" si="30">IF(G383=0,0,LOG10(G383))</f>
+        <v>3.6627578316815739</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -11541,22 +11541,22 @@
         <v>1</v>
       </c>
       <c r="D384">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F384">
-        <f t="shared" ref="F384:F406" si="28">D384*20*10^E384</f>
-        <v>4600</v>
+        <f t="shared" si="28"/>
+        <v>30000</v>
       </c>
       <c r="G384">
-        <f t="shared" ref="G384:G406" si="29">F384/C384</f>
-        <v>4600</v>
+        <f t="shared" si="29"/>
+        <v>30000</v>
       </c>
       <c r="H384" s="1">
-        <f t="shared" ref="H384:H406" si="30">IF(G384=0,0,LOG10(G384))</f>
-        <v>3.6627578316815739</v>
+        <f t="shared" si="30"/>
+        <v>4.4771212547196626</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -11573,19 +11573,19 @@
         <v>15</v>
       </c>
       <c r="E385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F385">
         <f t="shared" si="28"/>
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="G385">
         <f t="shared" si="29"/>
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="H385" s="1">
         <f t="shared" si="30"/>
-        <v>4.4771212547196626</v>
+        <v>2.4771212547196626</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -11599,22 +11599,22 @@
         <v>1</v>
       </c>
       <c r="D386">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F386">
         <f t="shared" si="28"/>
-        <v>300</v>
+        <v>72000</v>
       </c>
       <c r="G386">
         <f t="shared" si="29"/>
-        <v>300</v>
+        <v>72000</v>
       </c>
       <c r="H386" s="1">
         <f t="shared" si="30"/>
-        <v>2.4771212547196626</v>
+        <v>4.8573324964312681</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -11628,22 +11628,22 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F387">
         <f t="shared" si="28"/>
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G387">
         <f t="shared" si="29"/>
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="H387" s="1">
         <f t="shared" si="30"/>
-        <v>4.8573324964312681</v>
+        <v>1.3010299956639813</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -11657,22 +11657,22 @@
         <v>1</v>
       </c>
       <c r="D388">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F388">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>34000</v>
       </c>
       <c r="G388">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>34000</v>
       </c>
       <c r="H388" s="1">
         <f t="shared" si="30"/>
-        <v>1.3010299956639813</v>
+        <v>4.5314789170422554</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -11686,22 +11686,22 @@
         <v>1</v>
       </c>
       <c r="D389">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E389">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F389">
         <f t="shared" si="28"/>
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="G389">
         <f t="shared" si="29"/>
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="H389" s="1">
         <f t="shared" si="30"/>
-        <v>4.5314789170422554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -11715,22 +11715,22 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F390">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G390">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="H390" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3.8195439355418688</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -11744,22 +11744,22 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F391">
         <f t="shared" si="28"/>
-        <v>6600</v>
+        <v>54000</v>
       </c>
       <c r="G391">
         <f t="shared" si="29"/>
-        <v>6600</v>
+        <v>54000</v>
       </c>
       <c r="H391" s="1">
         <f t="shared" si="30"/>
-        <v>3.8195439355418688</v>
+        <v>4.7323937598229682</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -11773,22 +11773,22 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F392">
         <f t="shared" si="28"/>
-        <v>54000</v>
+        <v>1800</v>
       </c>
       <c r="G392">
         <f t="shared" si="29"/>
-        <v>54000</v>
+        <v>1800</v>
       </c>
       <c r="H392" s="1">
         <f t="shared" si="30"/>
-        <v>4.7323937598229682</v>
+        <v>3.255272505103306</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -11802,22 +11802,22 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F393">
         <f t="shared" si="28"/>
-        <v>1800</v>
+        <v>20000</v>
       </c>
       <c r="G393">
         <f t="shared" si="29"/>
-        <v>1800</v>
+        <v>20000</v>
       </c>
       <c r="H393" s="1">
         <f t="shared" si="30"/>
-        <v>3.255272505103306</v>
+        <v>4.3010299956639813</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -11831,22 +11831,22 @@
         <v>1</v>
       </c>
       <c r="D394">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E394">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F394">
         <f t="shared" si="28"/>
-        <v>20000</v>
+        <v>2400</v>
       </c>
       <c r="G394">
         <f t="shared" si="29"/>
-        <v>20000</v>
+        <v>2400</v>
       </c>
       <c r="H394" s="1">
         <f t="shared" si="30"/>
-        <v>4.3010299956639813</v>
+        <v>3.3802112417116059</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -11860,22 +11860,22 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F395">
         <f t="shared" si="28"/>
-        <v>2400</v>
+        <v>40000</v>
       </c>
       <c r="G395">
         <f t="shared" si="29"/>
-        <v>2400</v>
+        <v>40000</v>
       </c>
       <c r="H395" s="1">
         <f t="shared" si="30"/>
-        <v>3.3802112417116059</v>
+        <v>4.6020599913279625</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -11889,22 +11889,22 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F396">
         <f t="shared" si="28"/>
-        <v>40000</v>
+        <v>360</v>
       </c>
       <c r="G396">
         <f t="shared" si="29"/>
-        <v>40000</v>
+        <v>360</v>
       </c>
       <c r="H396" s="1">
         <f t="shared" si="30"/>
-        <v>4.6020599913279625</v>
+        <v>2.5563025007672873</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -11918,22 +11918,22 @@
         <v>1</v>
       </c>
       <c r="D397">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F397">
         <f t="shared" si="28"/>
-        <v>360</v>
+        <v>1400</v>
       </c>
       <c r="G397">
         <f t="shared" si="29"/>
-        <v>360</v>
+        <v>1400</v>
       </c>
       <c r="H397" s="1">
         <f t="shared" si="30"/>
-        <v>2.5563025007672873</v>
+        <v>3.1461280356782382</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -11947,22 +11947,22 @@
         <v>1</v>
       </c>
       <c r="D398">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F398">
         <f t="shared" si="28"/>
-        <v>1400</v>
+        <v>24000</v>
       </c>
       <c r="G398">
         <f t="shared" si="29"/>
-        <v>1400</v>
+        <v>24000</v>
       </c>
       <c r="H398" s="1">
         <f t="shared" si="30"/>
-        <v>3.1461280356782382</v>
+        <v>4.3802112417116064</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -11976,22 +11976,22 @@
         <v>1</v>
       </c>
       <c r="D399">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E399">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F399">
         <f t="shared" si="28"/>
-        <v>24000</v>
+        <v>720</v>
       </c>
       <c r="G399">
         <f t="shared" si="29"/>
-        <v>24000</v>
+        <v>720</v>
       </c>
       <c r="H399" s="1">
         <f t="shared" si="30"/>
-        <v>4.3802112417116064</v>
+        <v>2.8573324964312685</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -12005,22 +12005,22 @@
         <v>1</v>
       </c>
       <c r="D400">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F400">
         <f t="shared" si="28"/>
-        <v>720</v>
+        <v>2000</v>
       </c>
       <c r="G400">
         <f t="shared" si="29"/>
-        <v>720</v>
+        <v>2000</v>
       </c>
       <c r="H400" s="1">
         <f t="shared" si="30"/>
-        <v>2.8573324964312685</v>
+        <v>3.3010299956639813</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -12034,22 +12034,22 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E401">
         <v>1</v>
       </c>
       <c r="F401">
         <f t="shared" si="28"/>
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="G401">
         <f t="shared" si="29"/>
-        <v>2000</v>
+        <v>5200</v>
       </c>
       <c r="H401" s="1">
         <f t="shared" si="30"/>
-        <v>3.3010299956639813</v>
+        <v>3.716003343634799</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -12063,22 +12063,22 @@
         <v>1</v>
       </c>
       <c r="D402">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F402">
         <f t="shared" si="28"/>
-        <v>5200</v>
+        <v>28000</v>
       </c>
       <c r="G402">
         <f t="shared" si="29"/>
-        <v>5200</v>
+        <v>28000</v>
       </c>
       <c r="H402" s="1">
         <f t="shared" si="30"/>
-        <v>3.716003343634799</v>
+        <v>4.4471580313422194</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -12092,22 +12092,22 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E403">
         <v>2</v>
       </c>
       <c r="F403">
         <f t="shared" si="28"/>
-        <v>28000</v>
+        <v>62000</v>
       </c>
       <c r="G403">
         <f t="shared" si="29"/>
-        <v>28000</v>
+        <v>62000</v>
       </c>
       <c r="H403" s="1">
         <f t="shared" si="30"/>
-        <v>4.4471580313422194</v>
+        <v>4.7923916894982534</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -12121,22 +12121,22 @@
         <v>1</v>
       </c>
       <c r="D404">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F404">
         <f t="shared" si="28"/>
-        <v>62000</v>
+        <v>5000</v>
       </c>
       <c r="G404">
         <f t="shared" si="29"/>
-        <v>62000</v>
+        <v>5000</v>
       </c>
       <c r="H404" s="1">
         <f t="shared" si="30"/>
-        <v>4.7923916894982534</v>
+        <v>3.6989700043360187</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -12150,22 +12150,22 @@
         <v>1</v>
       </c>
       <c r="D405">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F405">
         <f t="shared" si="28"/>
-        <v>5000</v>
+        <v>42000</v>
       </c>
       <c r="G405">
         <f t="shared" si="29"/>
-        <v>5000</v>
+        <v>42000</v>
       </c>
       <c r="H405" s="1">
         <f t="shared" si="30"/>
-        <v>3.6989700043360187</v>
+        <v>4.6232492903979008</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -12179,22 +12179,22 @@
         <v>1</v>
       </c>
       <c r="D406">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E406">
         <v>2</v>
       </c>
       <c r="F406">
         <f t="shared" si="28"/>
-        <v>42000</v>
+        <v>130000</v>
       </c>
       <c r="G406">
         <f t="shared" si="29"/>
-        <v>42000</v>
+        <v>130000</v>
       </c>
       <c r="H406" s="1">
         <f t="shared" si="30"/>
-        <v>4.6232492903979008</v>
+        <v>5.1139433523068369</v>
       </c>
     </row>
   </sheetData>
